--- a/output/fit_clients/fit_round_379.xlsx
+++ b/output/fit_clients/fit_round_379.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2357370548.852531</v>
+        <v>1570891383.131269</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0985586708656586</v>
+        <v>0.113163603651105</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04129507744807812</v>
+        <v>0.04519809617278461</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1178685318.116349</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1605268022.923542</v>
+        <v>1784267390.673096</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1816034352283163</v>
+        <v>0.1673364172599119</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0469682394416308</v>
+        <v>0.03661165086349812</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>802633990.3990809</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4656725835.304156</v>
+        <v>3298742126.99052</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1592385797670978</v>
+        <v>0.1034210718828573</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02435189837531416</v>
+        <v>0.03250543456782649</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>137</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2328362978.3591</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4250322269.946541</v>
+        <v>3141947706.346453</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08192610971045744</v>
+        <v>0.08075123210241215</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04867930449328673</v>
+        <v>0.04676025349750296</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>140</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2125161122.092287</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2521826355.312148</v>
+        <v>2212019038.520895</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0983987578234721</v>
+        <v>0.1112660276379626</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04724347997821652</v>
+        <v>0.04417598913991456</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1260913150.790368</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2854449660.428082</v>
+        <v>2075555003.47331</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09311253916046994</v>
+        <v>0.08775494591846743</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04460619642900004</v>
+        <v>0.04074240484386767</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>119</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1427224809.115172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3506307475.204073</v>
+        <v>2412443049.79511</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1377040639413542</v>
+        <v>0.2092283446963493</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03083238185871879</v>
+        <v>0.02368779296923265</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>122</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1753153846.886972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2234489904.814601</v>
+        <v>1988728789.211039</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1227947030007513</v>
+        <v>0.1895923402514402</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02790435308606964</v>
+        <v>0.02684277742888597</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1117244946.498994</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5801974243.771839</v>
+        <v>3622551159.19184</v>
       </c>
       <c r="F10" t="n">
-        <v>0.145962700097573</v>
+        <v>0.1962368682204673</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03718081136839139</v>
+        <v>0.0484603188633551</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>159</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2900987283.337986</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3089840231.126058</v>
+        <v>3478036939.673477</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1707099290860952</v>
+        <v>0.1529200472471751</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03807830530254768</v>
+        <v>0.04500285232854618</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>156</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1544920064.787036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2054021463.073501</v>
+        <v>3090605808.534107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1705470273126517</v>
+        <v>0.1656919388257143</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03434094149884748</v>
+        <v>0.04705715276112262</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>129</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1027010662.948852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4200770637.53216</v>
+        <v>4605190707.444228</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08226122122880732</v>
+        <v>0.06616926726975525</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02825919914192416</v>
+        <v>0.02569612069217616</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>127</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2100385363.510638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3434397330.756233</v>
+        <v>3800575935.772922</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1417437877254198</v>
+        <v>0.1851714990614731</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04294067135569285</v>
+        <v>0.03892168912050183</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>121</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1717198668.37329</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1403618127.517174</v>
+        <v>1766449803.981246</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08878808288480333</v>
+        <v>0.1037794655184453</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03399972582424952</v>
+        <v>0.03702884166911868</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>701809127.4200764</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2762902421.209207</v>
+        <v>2706376797.841383</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1126084328258927</v>
+        <v>0.09367291854639244</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04561310068680074</v>
+        <v>0.03378007580778149</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>76</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1381451217.956641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5006996439.052916</v>
+        <v>3496705340.194159</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1717056208273494</v>
+        <v>0.1637304884920163</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05163514397759009</v>
+        <v>0.04121365094057376</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>110</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2503498204.319204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2424483967.941718</v>
+        <v>2666741134.251286</v>
       </c>
       <c r="F18" t="n">
-        <v>0.173362808475981</v>
+        <v>0.1151394775986526</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03198743535354159</v>
+        <v>0.02358652001120477</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>124</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1212242055.916049</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1154489138.794771</v>
+        <v>1292413887.679698</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1666541111393938</v>
+        <v>0.1661997902954928</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02695074575388077</v>
+        <v>0.02699090097196133</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>577244636.2848008</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2533237851.619298</v>
+        <v>2146180144.154477</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1399423834266314</v>
+        <v>0.1140852015432294</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02703438160620709</v>
+        <v>0.03042306463567102</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1266618895.378661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1841785282.611526</v>
+        <v>1708603279.675205</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06488072497647698</v>
+        <v>0.1026823839871061</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03603849841494429</v>
+        <v>0.03233423887105371</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>920892692.4205366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3814893095.83365</v>
+        <v>2499903362.149665</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1056786683944866</v>
+        <v>0.1115294378110369</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03906094699639415</v>
+        <v>0.03608692221694827</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1907446560.659098</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1327712306.916057</v>
+        <v>1284013867.207303</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1722500980778039</v>
+        <v>0.1574281338121129</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04185759030731698</v>
+        <v>0.03909768984473726</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>663856168.4276534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4130773545.724746</v>
+        <v>2903180772.182152</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1135381633251677</v>
+        <v>0.1246310502643326</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02697234712435144</v>
+        <v>0.03389907021117549</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>110</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2065386732.070109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1369830317.408108</v>
+        <v>1142004027.299384</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08751556277869579</v>
+        <v>0.0891905998659787</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02393399671502327</v>
+        <v>0.02112518990770162</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>684915137.6039723</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1096900279.623889</v>
+        <v>968875068.9544053</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1226113768178938</v>
+        <v>0.1133927098110448</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03091850486660003</v>
+        <v>0.03100134232066411</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>548450135.6316683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4221446685.552271</v>
+        <v>3456482104.319568</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1125159871247454</v>
+        <v>0.1278910462331687</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01886695772404588</v>
+        <v>0.02439097607816549</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>85</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2110723341.965597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2772323423.339545</v>
+        <v>3231493347.328538</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1291018729438876</v>
+        <v>0.1057764732093108</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04016039931709872</v>
+        <v>0.04867159073591669</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>121</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1386161703.126022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4730419380.982971</v>
+        <v>5604648824.288723</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1183894183711237</v>
+        <v>0.1273163121531127</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04084089179053126</v>
+        <v>0.04485698174602434</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>167</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2365209656.724029</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1866484651.374265</v>
+        <v>1891349475.671818</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09241682529280423</v>
+        <v>0.1383788141826169</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02826847153735714</v>
+        <v>0.03571749703386821</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>933242347.936277</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1382467530.319974</v>
+        <v>1260469943.316194</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07269782773148423</v>
+        <v>0.08802629017762283</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04151372110222291</v>
+        <v>0.03245726465711723</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>691233673.6930151</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1744138143.512792</v>
+        <v>1622323004.523771</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1046394816916938</v>
+        <v>0.1049783973058761</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03128666517860774</v>
+        <v>0.02832218850059037</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>872069190.682524</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2050910618.323938</v>
+        <v>2171015714.234726</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1644476559733485</v>
+        <v>0.1640320221652761</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04884563565887708</v>
+        <v>0.05515359996686912</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>114</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1025455385.613569</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1218216408.030936</v>
+        <v>1569761175.371601</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1119368154667248</v>
+        <v>0.0846905153538255</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02592652054962314</v>
+        <v>0.0174478595985427</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>609108206.1393851</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>948508159.6943405</v>
+        <v>1227306654.493674</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0718002308704014</v>
+        <v>0.07636573826826575</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03351586239203674</v>
+        <v>0.03089034871200898</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>474254109.7295646</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3085265833.20239</v>
+        <v>2823378456.247206</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1684441659452828</v>
+        <v>0.1642108187499386</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02284872268597917</v>
+        <v>0.01908456490285547</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>95</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1542632891.673026</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2533698184.048143</v>
+        <v>2765808799.420199</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09452635446616513</v>
+        <v>0.1043646444319549</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04174831955281281</v>
+        <v>0.03188347978236891</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>101</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1266849192.714967</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2177296307.69617</v>
+        <v>1472529338.523041</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1025507074583987</v>
+        <v>0.07896732904152073</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03558931555113423</v>
+        <v>0.03558340301895012</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1088648107.438322</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1632304731.232984</v>
+        <v>1691717264.279229</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1183046134500048</v>
+        <v>0.1437777345808278</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02286677768056371</v>
+        <v>0.03009942945725214</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>816152415.966202</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1490847153.440806</v>
+        <v>1634937361.897275</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1466835797933134</v>
+        <v>0.1460826088296281</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04635434432228317</v>
+        <v>0.04679659182634192</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>745423545.2237122</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1892048175.949413</v>
+        <v>2868392670.616317</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1408004617209454</v>
+        <v>0.113998678523753</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02996912361460684</v>
+        <v>0.03530394477630491</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>98</v>
-      </c>
-      <c r="J41" t="n">
-        <v>946024172.756405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4306909262.687378</v>
+        <v>3804811348.022391</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1171143090084243</v>
+        <v>0.09349858581687127</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03655227343323173</v>
+        <v>0.03934759541087687</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2153454681.740733</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2180946540.36031</v>
+        <v>2790434572.540795</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1501586621111228</v>
+        <v>0.1336091922775656</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02018052389190055</v>
+        <v>0.02064418066799446</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>133</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1090473350.950989</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1715073429.365059</v>
+        <v>1864911733.067578</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08550841764277686</v>
+        <v>0.09582169255822641</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03211109140240658</v>
+        <v>0.02658366647336611</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>857536764.1826582</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2521173773.420464</v>
+        <v>2177719927.881136</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1751970140673244</v>
+        <v>0.1555371674746144</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04520042486292784</v>
+        <v>0.04287290650647239</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1260586930.119851</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4189218239.535549</v>
+        <v>4951554841.267966</v>
       </c>
       <c r="F46" t="n">
-        <v>0.131610180696252</v>
+        <v>0.1693996030507288</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04284096364074867</v>
+        <v>0.04565459762168744</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>134</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2094609100.133718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3941361139.277383</v>
+        <v>4279833556.996888</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1458519157914681</v>
+        <v>0.1739330761208831</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05479284792374483</v>
+        <v>0.0556616322729535</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>101</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1970680565.442582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4152639920.258695</v>
+        <v>3611707401.610269</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0940110255105093</v>
+        <v>0.1100039992905135</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03358520698108342</v>
+        <v>0.03480924925991963</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2076319985.640528</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1848637360.314171</v>
+        <v>1856523762.847407</v>
       </c>
       <c r="F49" t="n">
-        <v>0.149615116503466</v>
+        <v>0.1958632878261133</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02756563628066697</v>
+        <v>0.02850906529889066</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>924318657.9799066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3893844082.569946</v>
+        <v>2722945642.448787</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1498882766949576</v>
+        <v>0.1306212429464878</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03531083471703177</v>
+        <v>0.04168087208033242</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>129</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1946922037.558362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1033225756.216015</v>
+        <v>1440517353.884003</v>
       </c>
       <c r="F51" t="n">
-        <v>0.131920722344002</v>
+        <v>0.1443599472205007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03770791712809172</v>
+        <v>0.04551994483226864</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>516612956.7069951</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3383538190.236342</v>
+        <v>4153701796.145651</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1283075961538078</v>
+        <v>0.1170165014454773</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05799627172527741</v>
+        <v>0.05180459173265321</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>156</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1691769187.88727</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3772952446.003611</v>
+        <v>2998069250.194775</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1585025726253688</v>
+        <v>0.1523383400722488</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03372469888260426</v>
+        <v>0.02305588187794826</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>108</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1886476202.079061</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4340268749.251597</v>
+        <v>3242881673.537406</v>
       </c>
       <c r="F54" t="n">
-        <v>0.159792570531818</v>
+        <v>0.1133458828156202</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04443266750443736</v>
+        <v>0.04756152336384767</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2170134465.438118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3449387018.165239</v>
+        <v>4306723872.779769</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1471490013871796</v>
+        <v>0.1711430390355301</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02233226864603851</v>
+        <v>0.02548219107220129</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>113</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1724693459.693167</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1315745898.875768</v>
+        <v>1571401318.964296</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1423398931176978</v>
+        <v>0.1451187406706428</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04386310262309558</v>
+        <v>0.05400011134972205</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>657873019.0056921</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3453904102.355129</v>
+        <v>4147859331.220617</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1112042117665576</v>
+        <v>0.1179555536978507</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01926411276932401</v>
+        <v>0.02092658784045</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>121</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1726952093.704714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1210528924.725214</v>
+        <v>1215579748.188924</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1859496268213571</v>
+        <v>0.1504949330579334</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0254493701535736</v>
+        <v>0.03840217508115696</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>605264519.9185508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4716237560.599999</v>
+        <v>4271219993.19453</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08179954314754201</v>
+        <v>0.09457277671284414</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03810390514280228</v>
+        <v>0.03095062878306118</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>107</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2358118721.719983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2583561166.969953</v>
+        <v>3496549493.502107</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1386438016591993</v>
+        <v>0.1800579231758862</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02130917253188137</v>
+        <v>0.0257061075189392</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1291780610.167735</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2563478827.052073</v>
+        <v>3235685930.487164</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1788437068005708</v>
+        <v>0.1236384991930131</v>
       </c>
       <c r="G61" t="n">
-        <v>0.024090840215426</v>
+        <v>0.0211711615605529</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>130</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1281739435.174315</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2092166663.199328</v>
+        <v>1382064085.170312</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1936949226567934</v>
+        <v>0.1646781040388087</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04182599843764747</v>
+        <v>0.04430728115894431</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1046083403.505479</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5152392123.654316</v>
+        <v>5031630249.141819</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09857225578547134</v>
+        <v>0.0856097890718541</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03825502097899054</v>
+        <v>0.03819735071937089</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2576196072.830696</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3617963425.155239</v>
+        <v>4696547300.180935</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1490896520074051</v>
+        <v>0.1891984944486418</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03367632423091542</v>
+        <v>0.02661044693683491</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>118</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1808981721.577619</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3988641785.518168</v>
+        <v>5109817665.479718</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1732522164666886</v>
+        <v>0.1586756475654176</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01953729952847734</v>
+        <v>0.02421833122589665</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>136</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1994320912.033633</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3504118273.605783</v>
+        <v>5279991175.284123</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1150579986397104</v>
+        <v>0.103141102846765</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04310378682774309</v>
+        <v>0.05103880949139081</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>110</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1752059083.803313</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2579679933.18893</v>
+        <v>2731584899.031367</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06298718834182869</v>
+        <v>0.08913980320293878</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03903663447753965</v>
+        <v>0.03700036820635892</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>121</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1289840020.489968</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5180925009.985285</v>
+        <v>5346791458.289043</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1143396946996657</v>
+        <v>0.1591069141480456</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04438631963053861</v>
+        <v>0.0461345712094648</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2590462572.351445</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2075539183.390648</v>
+        <v>2423392063.62772</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1308234824194904</v>
+        <v>0.158047881068499</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04787992494812225</v>
+        <v>0.03873723260591574</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1037769606.417235</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2761977849.974759</v>
+        <v>2475246106.819725</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08658337599688706</v>
+        <v>0.09725556327603577</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04578411901612105</v>
+        <v>0.04215183632041556</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>108</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1380988886.572536</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4104697182.945841</v>
+        <v>5533102534.45436</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1680709535152781</v>
+        <v>0.1278143588220976</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03284242319355693</v>
+        <v>0.02326764636577484</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>138</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2052348630.388923</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1515485520.970765</v>
+        <v>1481186262.025167</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1045167638505581</v>
+        <v>0.08463631933052927</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04474293641747768</v>
+        <v>0.05098417755645285</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>757742785.0003294</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2219683230.585879</v>
+        <v>2612091711.898628</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1123049479146194</v>
+        <v>0.07425259713464911</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03915771728363982</v>
+        <v>0.03290964532614463</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>144</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1109841682.729884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2515182651.027991</v>
+        <v>3344239928.893093</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1533318313870048</v>
+        <v>0.1509535170278736</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03517095930114737</v>
+        <v>0.02786376916407634</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>129</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1257591432.835899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1530563196.390942</v>
+        <v>1616740716.076184</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1466803216462093</v>
+        <v>0.1192387957558246</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03242062998369374</v>
+        <v>0.02808417588213651</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>765281606.464385</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5095034216.141095</v>
+        <v>5105207448.500287</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08973860762567473</v>
+        <v>0.09793030782101353</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02650391358360567</v>
+        <v>0.02598718182286816</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2547517138.729311</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1574378957.334703</v>
+        <v>1745024555.466983</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1257286153301225</v>
+        <v>0.1766858325678111</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02404304771215673</v>
+        <v>0.02214146738043712</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>787189477.3241569</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3125870700.964777</v>
+        <v>3835577318.728348</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1365309926528381</v>
+        <v>0.1158670989176983</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05574404759096585</v>
+        <v>0.04703518298886715</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>131</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1562935378.761046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1427153704.379309</v>
+        <v>1567568168.027367</v>
       </c>
       <c r="F79" t="n">
-        <v>0.145345641229583</v>
+        <v>0.1311073335136422</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03664619231573993</v>
+        <v>0.02935513876411866</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>713576873.6853193</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3447915081.554786</v>
+        <v>4967801565.752016</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08656325464498832</v>
+        <v>0.110818921241571</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03476467923991539</v>
+        <v>0.02975598182320327</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1723957512.798298</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5206118100.437602</v>
+        <v>3387999266.807224</v>
       </c>
       <c r="F81" t="n">
-        <v>0.113501842549259</v>
+        <v>0.09940568139893996</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02365124951797152</v>
+        <v>0.02458493593887752</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2603059058.203425</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5238542858.097933</v>
+        <v>4977960147.451088</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1819648091693299</v>
+        <v>0.1398382877842147</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02034704060130997</v>
+        <v>0.02170041091720859</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>134</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2619271399.707183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2292823573.583503</v>
+        <v>2087850315.001808</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1045604531549083</v>
+        <v>0.1162916258533882</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04202955634474616</v>
+        <v>0.03877957320788357</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1146411808.527556</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2605776375.221721</v>
+        <v>2310669265.816836</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1095295114495455</v>
+        <v>0.09851860518610797</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05154742347141077</v>
+        <v>0.03296170342598997</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1302888103.901594</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2971356994.208892</v>
+        <v>3205618123.102765</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1299424288444229</v>
+        <v>0.1144931633216433</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0389272489160864</v>
+        <v>0.04753206173301597</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>142</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1485678554.093946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2094999798.072667</v>
+        <v>2074281031.111048</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1043903060906378</v>
+        <v>0.113413377817307</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02357053492257821</v>
+        <v>0.02409190534260667</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1047499939.885165</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1282912642.831091</v>
+        <v>1025472396.073043</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1205790955773761</v>
+        <v>0.1802459693182387</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03577124481425548</v>
+        <v>0.03166274164929396</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>641456398.2544008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3621003210.49006</v>
+        <v>3376967285.59265</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1140496792828455</v>
+        <v>0.1683228379204386</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02698017177816647</v>
+        <v>0.02819434700194554</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>150</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1810501697.070203</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2861111312.118156</v>
+        <v>2282094237.656148</v>
       </c>
       <c r="F89" t="n">
-        <v>0.145314648927182</v>
+        <v>0.1032608306663578</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0366234869772074</v>
+        <v>0.03408007981217641</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>129</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1430555704.375952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1629148912.884647</v>
+        <v>1655841824.846128</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1215895697208963</v>
+        <v>0.0981338991167158</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04361301825826992</v>
+        <v>0.05631313887958558</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>814574458.8055702</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1840221008.331941</v>
+        <v>2093429859.574473</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1593067254576501</v>
+        <v>0.1851867894610801</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05833076720615712</v>
+        <v>0.06153082886558192</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>920110497.7668279</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2122714511.167432</v>
+        <v>2856088236.847652</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0945224809889202</v>
+        <v>0.08700361535778202</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04699989962329468</v>
+        <v>0.03337199133188488</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>107</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1061357211.051687</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4634844681.201253</v>
+        <v>5030734232.048607</v>
       </c>
       <c r="F93" t="n">
-        <v>0.106458357851543</v>
+        <v>0.1230318723437712</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0529707504898227</v>
+        <v>0.04998851201622883</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2317422300.19286</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2321172332.690197</v>
+        <v>2418210495.717131</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1686218383754046</v>
+        <v>0.1590919357353741</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03611133671816001</v>
+        <v>0.034296604410076</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1160586206.499631</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2968072519.521265</v>
+        <v>2069390970.367589</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08598091491089858</v>
+        <v>0.1031413281742804</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03718619472031854</v>
+        <v>0.05110212931673135</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1484036261.859637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1891128611.349829</v>
+        <v>1893604415.196502</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1407015448693613</v>
+        <v>0.09310072874906987</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02939965176970849</v>
+        <v>0.03199492879518993</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>945564304.3020939</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4893409927.858805</v>
+        <v>4483121103.725132</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1334233859889074</v>
+        <v>0.168705007794779</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01803126127643213</v>
+        <v>0.02156133619081966</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>122</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2446705092.163695</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2489449732.176212</v>
+        <v>2603921252.16791</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08103727187143675</v>
+        <v>0.1113939974462584</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02218166312826102</v>
+        <v>0.0242588931330979</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>100</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1244724816.205</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2818206069.77211</v>
+        <v>3199999019.294822</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1281647958398079</v>
+        <v>0.1242238843587479</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0242486242985714</v>
+        <v>0.02962192800240955</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>118</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1409103007.663351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3961979842.636929</v>
+        <v>4718422904.40072</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1554043022207213</v>
+        <v>0.1573392534683771</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02367780976740305</v>
+        <v>0.02421580536357403</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>116</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1980989988.969026</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2187547619.301263</v>
+        <v>2736384883.993022</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1769302128696053</v>
+        <v>0.1561357324698906</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03548064745521644</v>
+        <v>0.05090779297780063</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>154</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1093773791.327293</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_379.xlsx
+++ b/output/fit_clients/fit_round_379.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1570891383.131269</v>
+        <v>1701539703.994379</v>
       </c>
       <c r="F2" t="n">
-        <v>0.113163603651105</v>
+        <v>0.1079645490943376</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04519809617278461</v>
+        <v>0.04321038455378123</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1784267390.673096</v>
+        <v>2497194190.468818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1673364172599119</v>
+        <v>0.1838954996432448</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03661165086349812</v>
+        <v>0.03906496067697471</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3298742126.99052</v>
+        <v>3958143963.319902</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1034210718828573</v>
+        <v>0.1305886512126077</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03250543456782649</v>
+        <v>0.03227685325363663</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3141947706.346453</v>
+        <v>2561736566.569359</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08075123210241215</v>
+        <v>0.1027818031085877</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04676025349750296</v>
+        <v>0.04061675967489561</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2212019038.520895</v>
+        <v>2781409135.965737</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1112660276379626</v>
+        <v>0.1086243997561864</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04417598913991456</v>
+        <v>0.03672222586737929</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2075555003.47331</v>
+        <v>2350814694.816833</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08775494591846743</v>
+        <v>0.08881781996176039</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04074240484386767</v>
+        <v>0.04708856184405613</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2412443049.79511</v>
+        <v>2697990386.557686</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2092283446963493</v>
+        <v>0.1664349990243248</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02368779296923265</v>
+        <v>0.03276305190923638</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1988728789.211039</v>
+        <v>1640871277.597368</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1895923402514402</v>
+        <v>0.1658127628016705</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02684277742888597</v>
+        <v>0.0286543573532944</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3622551159.19184</v>
+        <v>5887268210.580108</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1962368682204673</v>
+        <v>0.1679816578347521</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0484603188633551</v>
+        <v>0.0388510820863467</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3478036939.673477</v>
+        <v>3064665437.429872</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1529200472471751</v>
+        <v>0.130524727452014</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04500285232854618</v>
+        <v>0.04129532812093346</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3090605808.534107</v>
+        <v>2010412156.65119</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1656919388257143</v>
+        <v>0.163928511677997</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04705715276112262</v>
+        <v>0.04904790682167731</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4605190707.444228</v>
+        <v>3650469162.47558</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06616926726975525</v>
+        <v>0.06647706068730755</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02569612069217616</v>
+        <v>0.02474212460945993</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3800575935.772922</v>
+        <v>3436769526.116881</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1851714990614731</v>
+        <v>0.1360555071409422</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03892168912050183</v>
+        <v>0.03161069147345008</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1766449803.981246</v>
+        <v>1254298565.666789</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1037794655184453</v>
+        <v>0.1089278886473319</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03702884166911868</v>
+        <v>0.0469031982381105</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2706376797.841383</v>
+        <v>1878926157.623555</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09367291854639244</v>
+        <v>0.08619877581185099</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03378007580778149</v>
+        <v>0.05144058949517845</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3496705340.194159</v>
+        <v>3431533338.237351</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1637304884920163</v>
+        <v>0.1388976690439676</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04121365094057376</v>
+        <v>0.04589504861261944</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2666741134.251286</v>
+        <v>3209165690.564281</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1151394775986526</v>
+        <v>0.1738819336298087</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02358652001120477</v>
+        <v>0.03327319360816716</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1292413887.679698</v>
+        <v>1373335621.316416</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1661997902954928</v>
+        <v>0.1287100342293218</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02699090097196133</v>
+        <v>0.02426963106515422</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2146180144.154477</v>
+        <v>2471737441.476622</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1140852015432294</v>
+        <v>0.1575407702310151</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03042306463567102</v>
+        <v>0.02171931643432709</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1708603279.675205</v>
+        <v>1780155704.43979</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1026823839871061</v>
+        <v>0.07501675651864398</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03233423887105371</v>
+        <v>0.03361747927198528</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2499903362.149665</v>
+        <v>2844823996.307472</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1115294378110369</v>
+        <v>0.1245423094528359</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03608692221694827</v>
+        <v>0.04036917559984222</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1284013867.207303</v>
+        <v>1262751304.744403</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1574281338121129</v>
+        <v>0.1395029793834432</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03909768984473726</v>
+        <v>0.04014382819971486</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2903180772.182152</v>
+        <v>2515747010.744828</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1246310502643326</v>
+        <v>0.1013016153992537</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03389907021117549</v>
+        <v>0.03306612897150787</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1142004027.299384</v>
+        <v>1485500661.95778</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0891905998659787</v>
+        <v>0.1019658699965851</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02112518990770162</v>
+        <v>0.02762884270101352</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>968875068.9544053</v>
+        <v>1317946236.955006</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1133927098110448</v>
+        <v>0.09044929198792109</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03100134232066411</v>
+        <v>0.0329967466235297</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3456482104.319568</v>
+        <v>4250272406.279078</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1278910462331687</v>
+        <v>0.1454502796716472</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02439097607816549</v>
+        <v>0.02615507649121794</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3231493347.328538</v>
+        <v>3127958583.203593</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1057764732093108</v>
+        <v>0.1293574984336982</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04867159073591669</v>
+        <v>0.04885479533199334</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5604648824.288723</v>
+        <v>5182428553.300339</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1273163121531127</v>
+        <v>0.1435465964300492</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04485698174602434</v>
+        <v>0.03664569896653839</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1891349475.671818</v>
+        <v>1528272580.000227</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1383788141826169</v>
+        <v>0.1195739836880987</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03571749703386821</v>
+        <v>0.0328436831085791</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1260469943.316194</v>
+        <v>1409350938.029542</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08802629017762283</v>
+        <v>0.1059431592472245</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03245726465711723</v>
+        <v>0.03741085675872434</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1622323004.523771</v>
+        <v>1791920067.373842</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1049783973058761</v>
+        <v>0.1180762533115991</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02832218850059037</v>
+        <v>0.03703316603629302</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2171015714.234726</v>
+        <v>2308221103.789491</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1640320221652761</v>
+        <v>0.1910650159978119</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05515359996686912</v>
+        <v>0.04885562125917481</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1569761175.371601</v>
+        <v>1341089594.441554</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0846905153538255</v>
+        <v>0.1050690836069042</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0174478595985427</v>
+        <v>0.02082221766798309</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1227306654.493674</v>
+        <v>1107856750.691167</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07636573826826575</v>
+        <v>0.07680945446811711</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03089034871200898</v>
+        <v>0.04332281391283987</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2823378456.247206</v>
+        <v>1966040750.766918</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1642108187499386</v>
+        <v>0.1109611616346033</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01908456490285547</v>
+        <v>0.01876590142245333</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2765808799.420199</v>
+        <v>2481050213.267705</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1043646444319549</v>
+        <v>0.09694453814440791</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03188347978236891</v>
+        <v>0.04048661687385536</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1472529338.523041</v>
+        <v>1639695474.789749</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07896732904152073</v>
+        <v>0.08916983716178184</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03558340301895012</v>
+        <v>0.03409877167155514</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1691717264.279229</v>
+        <v>2048412480.947544</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1437777345808278</v>
+        <v>0.1681588040574647</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03009942945725214</v>
+        <v>0.031656272629193</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1634937361.897275</v>
+        <v>1748942377.205587</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1460826088296281</v>
+        <v>0.1112037475851806</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04679659182634192</v>
+        <v>0.05589754454755461</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2868392670.616317</v>
+        <v>2235803139.556794</v>
       </c>
       <c r="F41" t="n">
-        <v>0.113998678523753</v>
+        <v>0.1102875326912497</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03530394477630491</v>
+        <v>0.04414096469765424</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3804811348.022391</v>
+        <v>3557656259.473896</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09349858581687127</v>
+        <v>0.1257314301658367</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03934759541087687</v>
+        <v>0.02951719913562189</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2790434572.540795</v>
+        <v>2426866172.093505</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1336091922775656</v>
+        <v>0.2011833968800057</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02064418066799446</v>
+        <v>0.02295017371902195</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1864911733.067578</v>
+        <v>1746617976.835055</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09582169255822641</v>
+        <v>0.07431579068945789</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02658366647336611</v>
+        <v>0.03512430501892562</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2177719927.881136</v>
+        <v>2103465828.10589</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1555371674746144</v>
+        <v>0.1391957519359646</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04287290650647239</v>
+        <v>0.0474517706150157</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4951554841.267966</v>
+        <v>4839230395.466739</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1693996030507288</v>
+        <v>0.1223870800496512</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04565459762168744</v>
+        <v>0.06017856877728803</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4279833556.996888</v>
+        <v>3998897297.922575</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1739330761208831</v>
+        <v>0.1569548082475137</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0556616322729535</v>
+        <v>0.05013601406685721</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3611707401.610269</v>
+        <v>4270484338.453924</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1100039992905135</v>
+        <v>0.09606372926154223</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03480924925991963</v>
+        <v>0.02788507719757218</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1856523762.847407</v>
+        <v>1442959237.117095</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1958632878261133</v>
+        <v>0.1644511345491779</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02850906529889066</v>
+        <v>0.03254048656429281</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2722945642.448787</v>
+        <v>4032082773.01952</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1306212429464878</v>
+        <v>0.1215864626367029</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04168087208033242</v>
+        <v>0.04203547679349749</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1440517353.884003</v>
+        <v>1487421966.562562</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1443599472205007</v>
+        <v>0.1575414731983209</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04551994483226864</v>
+        <v>0.03713632960660793</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4153701796.145651</v>
+        <v>5141105205.868585</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1170165014454773</v>
+        <v>0.1264663407053907</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05180459173265321</v>
+        <v>0.03969773816386813</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2998069250.194775</v>
+        <v>2866122661.060123</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1523383400722488</v>
+        <v>0.1344510819867513</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02305588187794826</v>
+        <v>0.03381454991093922</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3242881673.537406</v>
+        <v>4452515998.420718</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1133458828156202</v>
+        <v>0.108321864796267</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04756152336384767</v>
+        <v>0.03981699218790011</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4306723872.779769</v>
+        <v>3793235911.146387</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1711430390355301</v>
+        <v>0.2132361361194389</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02548219107220129</v>
+        <v>0.02253451545912871</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1571401318.964296</v>
+        <v>1758986707.419734</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1451187406706428</v>
+        <v>0.1222348167373379</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05400011134972205</v>
+        <v>0.04599506720884496</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4147859331.220617</v>
+        <v>3150122806.881132</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1179555536978507</v>
+        <v>0.1779032688016681</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02092658784045</v>
+        <v>0.02179607519809318</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1215579748.188924</v>
+        <v>1403799641.498853</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1504949330579334</v>
+        <v>0.1872607162214913</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03840217508115696</v>
+        <v>0.02507058727046073</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4271219993.19453</v>
+        <v>3462498145.38207</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09457277671284414</v>
+        <v>0.1298575377146493</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03095062878306118</v>
+        <v>0.03563211115515182</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3496549493.502107</v>
+        <v>3006141722.412054</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1800579231758862</v>
+        <v>0.1765564497760655</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0257061075189392</v>
+        <v>0.02383864548767994</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3235685930.487164</v>
+        <v>2061351604.872014</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1236384991930131</v>
+        <v>0.1470740208166538</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0211711615605529</v>
+        <v>0.02457567447121312</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1382064085.170312</v>
+        <v>1909059935.42399</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1646781040388087</v>
+        <v>0.1650969253833975</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04430728115894431</v>
+        <v>0.03078822514365716</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5031630249.141819</v>
+        <v>4695009379.264715</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0856097890718541</v>
+        <v>0.09204878268810224</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03819735071937089</v>
+        <v>0.02909384347287401</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4696547300.180935</v>
+        <v>4411615754.399996</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1891984944486418</v>
+        <v>0.1250656953999993</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02661044693683491</v>
+        <v>0.03149976202199953</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5109817665.479718</v>
+        <v>4801365623.397527</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1586756475654176</v>
+        <v>0.1268042089927341</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02421833122589665</v>
+        <v>0.02486323369533442</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5279991175.284123</v>
+        <v>5550336098.640745</v>
       </c>
       <c r="F66" t="n">
-        <v>0.103141102846765</v>
+        <v>0.1309326374901132</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05103880949139081</v>
+        <v>0.04189851874139484</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2731584899.031367</v>
+        <v>2436236965.780354</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08913980320293878</v>
+        <v>0.06474085780143436</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03700036820635892</v>
+        <v>0.03320337676349416</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5346791458.289043</v>
+        <v>3878741433.711335</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1591069141480456</v>
+        <v>0.112395849504352</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0461345712094648</v>
+        <v>0.03631303514444442</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2423392063.62772</v>
+        <v>1945196144.86624</v>
       </c>
       <c r="F69" t="n">
-        <v>0.158047881068499</v>
+        <v>0.1252145590827289</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03873723260591574</v>
+        <v>0.0591697520476394</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2475246106.819725</v>
+        <v>3100957483.705436</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09725556327603577</v>
+        <v>0.06303209944761229</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04215183632041556</v>
+        <v>0.04170932947581383</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5533102534.45436</v>
+        <v>4366019496.746929</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1278143588220976</v>
+        <v>0.1202506348643394</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02326764636577484</v>
+        <v>0.02059957147242437</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1481186262.025167</v>
+        <v>2041973858.640729</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08463631933052927</v>
+        <v>0.06625606537448951</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05098417755645285</v>
+        <v>0.0453199332226974</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2612091711.898628</v>
+        <v>2733811709.211637</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07425259713464911</v>
+        <v>0.07026270433522552</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03290964532614463</v>
+        <v>0.0352796855023669</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3344239928.893093</v>
+        <v>3679859540.853422</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1509535170278736</v>
+        <v>0.167501063014961</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02786376916407634</v>
+        <v>0.0304024575143578</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1616740716.076184</v>
+        <v>2464680312.629732</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1192387957558246</v>
+        <v>0.1529513794126252</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02808417588213651</v>
+        <v>0.0341341273967203</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5105207448.500287</v>
+        <v>3378140335.420436</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09793030782101353</v>
+        <v>0.08950142425049332</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02598718182286816</v>
+        <v>0.0279004115807062</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1745024555.466983</v>
+        <v>1876882976.663892</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1766858325678111</v>
+        <v>0.1866277908729948</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02214146738043712</v>
+        <v>0.024416600654696</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3835577318.728348</v>
+        <v>4588083595.875759</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1158670989176983</v>
+        <v>0.1190889795288286</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04703518298886715</v>
+        <v>0.05449012533245043</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1567568168.027367</v>
+        <v>1682363852.709025</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1311073335136422</v>
+        <v>0.1067901366342954</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02935513876411866</v>
+        <v>0.03417883911675714</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4967801565.752016</v>
+        <v>4876570534.765243</v>
       </c>
       <c r="F80" t="n">
-        <v>0.110818921241571</v>
+        <v>0.08076662352890215</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02975598182320327</v>
+        <v>0.02757384539783561</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3387999266.807224</v>
+        <v>4234126746.271206</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09940568139893996</v>
+        <v>0.1272651187045685</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02458493593887752</v>
+        <v>0.02400413574385094</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4977960147.451088</v>
+        <v>5080315211.896858</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1398382877842147</v>
+        <v>0.1405105353562876</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02170041091720859</v>
+        <v>0.02776356181245756</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2087850315.001808</v>
+        <v>1930421928.943783</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1162916258533882</v>
+        <v>0.09716066407631571</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03877957320788357</v>
+        <v>0.02931795116826744</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2310669265.816836</v>
+        <v>1884052175.27841</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09851860518610797</v>
+        <v>0.09022424263033069</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03296170342598997</v>
+        <v>0.033245472888875</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3205618123.102765</v>
+        <v>2752917086.645733</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1144931633216433</v>
+        <v>0.1148131664615038</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04753206173301597</v>
+        <v>0.03719783516981396</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2074281031.111048</v>
+        <v>1799322937.838672</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113413377817307</v>
+        <v>0.1095637224573214</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02409190534260667</v>
+        <v>0.0220972896569531</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1025472396.073043</v>
+        <v>1448163282.982965</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1802459693182387</v>
+        <v>0.1721465871899662</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03166274164929396</v>
+        <v>0.03883051038242356</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3376967285.59265</v>
+        <v>3339313062.98118</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1683228379204386</v>
+        <v>0.1363032650004485</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02819434700194554</v>
+        <v>0.03284498247529088</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2282094237.656148</v>
+        <v>2533211707.596354</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1032608306663578</v>
+        <v>0.1210740875518811</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03408007981217641</v>
+        <v>0.03168697814745167</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1655841824.846128</v>
+        <v>1573620405.756619</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0981338991167158</v>
+        <v>0.1264278751341799</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05631313887958558</v>
+        <v>0.04893732478781691</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2093429859.574473</v>
+        <v>1920826298.958318</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1851867894610801</v>
+        <v>0.1801609373473188</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06153082886558192</v>
+        <v>0.04976850229082793</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2856088236.847652</v>
+        <v>2280242753.360445</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08700361535778202</v>
+        <v>0.1061284463670896</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03337199133188488</v>
+        <v>0.03931129034918036</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5030734232.048607</v>
+        <v>4669562056.592308</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1230318723437712</v>
+        <v>0.1256396302199285</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04998851201622883</v>
+        <v>0.04964795579624569</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2418210495.717131</v>
+        <v>1696636441.661004</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1590919357353741</v>
+        <v>0.1448775488428794</v>
       </c>
       <c r="G94" t="n">
-        <v>0.034296604410076</v>
+        <v>0.03901101397561507</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2069390970.367589</v>
+        <v>2100464764.238734</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1031413281742804</v>
+        <v>0.1171298931521405</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05110212931673135</v>
+        <v>0.03919677933528993</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1893604415.196502</v>
+        <v>1514855041.838749</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09310072874906987</v>
+        <v>0.1389153424336494</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03199492879518993</v>
+        <v>0.04162184370637636</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4483121103.725132</v>
+        <v>4731640512.908109</v>
       </c>
       <c r="F97" t="n">
-        <v>0.168705007794779</v>
+        <v>0.1472593383783624</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02156133619081966</v>
+        <v>0.02677105166946556</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2603921252.16791</v>
+        <v>3050688957.577346</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1113939974462584</v>
+        <v>0.1097348638945795</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0242588931330979</v>
+        <v>0.02689851668875656</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3199999019.294822</v>
+        <v>2736207075.534634</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1242238843587479</v>
+        <v>0.1346102203217614</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02962192800240955</v>
+        <v>0.03084131710496967</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4718422904.40072</v>
+        <v>4710786860.762798</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1573392534683771</v>
+        <v>0.1327684885966455</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02421580536357403</v>
+        <v>0.02326265717455581</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2736384883.993022</v>
+        <v>2737697100.508354</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1561357324698906</v>
+        <v>0.1351512841374395</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05090779297780063</v>
+        <v>0.05572882199299762</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_379.xlsx
+++ b/output/fit_clients/fit_round_379.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1701539703.994379</v>
+        <v>1907720758.973519</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1079645490943376</v>
+        <v>0.1132909067987512</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04321038455378123</v>
+        <v>0.04468386824451008</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2497194190.468818</v>
+        <v>2419417078.854645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1838954996432448</v>
+        <v>0.1143333116210434</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03906496067697471</v>
+        <v>0.0487058245935487</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3958143963.319902</v>
+        <v>3538980097.450203</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1305886512126077</v>
+        <v>0.1474951366207347</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03227685325363663</v>
+        <v>0.02846500555726544</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>194</v>
+      </c>
+      <c r="J4" t="n">
+        <v>377</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2561736566.569359</v>
+        <v>3211955329.283943</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1027818031085877</v>
+        <v>0.09250014555903249</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04061675967489561</v>
+        <v>0.03297433809518983</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>151</v>
+      </c>
+      <c r="J5" t="n">
+        <v>377</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2781409135.965737</v>
+        <v>1975649378.769226</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1086243997561864</v>
+        <v>0.1201689263004615</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03672222586737929</v>
+        <v>0.04575245703569237</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2350814694.816833</v>
+        <v>1911967629.374149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08881781996176039</v>
+        <v>0.08026589304455767</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04708856184405613</v>
+        <v>0.03431995613685797</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +711,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2697990386.557686</v>
+        <v>3309367147.345075</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1664349990243248</v>
+        <v>0.1491279688686573</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03276305190923638</v>
+        <v>0.02492923571563136</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>101</v>
+      </c>
+      <c r="J8" t="n">
+        <v>378</v>
+      </c>
+      <c r="K8" t="n">
+        <v>50.69000439895922</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1640871277.597368</v>
+        <v>2212427053.728139</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1658127628016705</v>
+        <v>0.1217900795113903</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0286543573532944</v>
+        <v>0.03305461867133985</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5887268210.580108</v>
+        <v>3756827469.708131</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1679816578347521</v>
+        <v>0.1398811177221481</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0388510820863467</v>
+        <v>0.0455377901917839</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>311</v>
+      </c>
+      <c r="J10" t="n">
+        <v>379</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3064665437.429872</v>
+        <v>2806802995.282423</v>
       </c>
       <c r="F11" t="n">
-        <v>0.130524727452014</v>
+        <v>0.1287435084293792</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04129532812093346</v>
+        <v>0.044068617901128</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>160</v>
+      </c>
+      <c r="J11" t="n">
+        <v>378</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30.86897977516205</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2010412156.65119</v>
+        <v>3001422916.111943</v>
       </c>
       <c r="F12" t="n">
-        <v>0.163928511677997</v>
+        <v>0.146384294665586</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04904790682167731</v>
+        <v>0.04242158430471334</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3650469162.47558</v>
+        <v>3868266128.951436</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06647706068730755</v>
+        <v>0.09729602671511393</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02474212460945993</v>
+        <v>0.02820921458041699</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>196</v>
+      </c>
+      <c r="J13" t="n">
+        <v>379</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3436769526.116881</v>
+        <v>2938055937.095486</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1360555071409422</v>
+        <v>0.1732797390892323</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03161069147345008</v>
+        <v>0.03618773010634652</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>78</v>
+      </c>
+      <c r="J14" t="n">
+        <v>373</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1254298565.666789</v>
+        <v>1807806328.26174</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1089278886473319</v>
+        <v>0.1068536554600634</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0469031982381105</v>
+        <v>0.04711881344386967</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1878926157.623555</v>
+        <v>1905585392.084999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08619877581185099</v>
+        <v>0.07000793731730845</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05144058949517845</v>
+        <v>0.05176342800889661</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3431533338.237351</v>
+        <v>5157069502.295053</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1388976690439676</v>
+        <v>0.1681000495087071</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04589504861261944</v>
+        <v>0.04349219884248474</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>180</v>
+      </c>
+      <c r="J17" t="n">
+        <v>379</v>
+      </c>
+      <c r="K17" t="n">
+        <v>56.44873925858921</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1067,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3209165690.564281</v>
+        <v>2844840684.117012</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1738819336298087</v>
+        <v>0.1216534180356533</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03327319360816716</v>
+        <v>0.0262324889557204</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>93</v>
+      </c>
+      <c r="J18" t="n">
+        <v>378</v>
+      </c>
+      <c r="K18" t="n">
+        <v>39.67746892868007</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1373335621.316416</v>
+        <v>1348244181.955535</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1287100342293218</v>
+        <v>0.1362631460954579</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02426963106515422</v>
+        <v>0.02613696789488252</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2471737441.476622</v>
+        <v>1906038877.428515</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1575407702310151</v>
+        <v>0.1568151863514677</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02171931643432709</v>
+        <v>0.02753551205416838</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1780155704.43979</v>
+        <v>1863371224.629434</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07501675651864398</v>
+        <v>0.08239167781163687</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03361747927198528</v>
+        <v>0.03649156159006451</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2844823996.307472</v>
+        <v>3967963587.930321</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1245423094528359</v>
+        <v>0.1155997730889042</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04036917559984222</v>
+        <v>0.04942854168857905</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>106</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1262751304.744403</v>
+        <v>1064613581.571635</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1395029793834432</v>
+        <v>0.1318257799607749</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04014382819971486</v>
+        <v>0.04495307761901479</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2515747010.744828</v>
+        <v>2565460988.385575</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1013016153992537</v>
+        <v>0.1235757226548194</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03306612897150787</v>
+        <v>0.02293781311590751</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>117</v>
+      </c>
+      <c r="J24" t="n">
+        <v>377</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1485500661.95778</v>
+        <v>1309862764.34372</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1019658699965851</v>
+        <v>0.1212008601426002</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02762884270101352</v>
+        <v>0.02412932189471882</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1317946236.955006</v>
+        <v>1406926716.86116</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09044929198792109</v>
+        <v>0.08326096250097904</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0329967466235297</v>
+        <v>0.03259126257618614</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4250272406.279078</v>
+        <v>4633282851.242904</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1454502796716472</v>
+        <v>0.1527176642971261</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02615507649121794</v>
+        <v>0.01945877099242802</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>157</v>
+      </c>
+      <c r="J27" t="n">
+        <v>379</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3127958583.203593</v>
+        <v>3045647293.919821</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1293574984336982</v>
+        <v>0.1489342846998705</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04885479533199334</v>
+        <v>0.04097746889932354</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>89</v>
+      </c>
+      <c r="J28" t="n">
+        <v>377</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5182428553.300339</v>
+        <v>4799432279.092622</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1435465964300492</v>
+        <v>0.1347243203382921</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03664569896653839</v>
+        <v>0.03616696472090438</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>328</v>
+      </c>
+      <c r="J29" t="n">
+        <v>378</v>
+      </c>
+      <c r="K29" t="n">
+        <v>51.0146529451881</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1528272580.000227</v>
+        <v>1901167237.981098</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1195739836880987</v>
+        <v>0.1044553075422358</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0328436831085791</v>
+        <v>0.03854893026800512</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1409350938.029542</v>
+        <v>938002101.3583621</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1059431592472245</v>
+        <v>0.08363543967182484</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03741085675872434</v>
+        <v>0.03994960218871822</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1791920067.373842</v>
+        <v>1193675200.786021</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1180762533115991</v>
+        <v>0.09237456119481853</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03703316603629302</v>
+        <v>0.02938634062502748</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2308221103.789491</v>
+        <v>2613131827.531304</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1910650159978119</v>
+        <v>0.1339767536573943</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04885562125917481</v>
+        <v>0.03983980646625949</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1341089594.441554</v>
+        <v>1221936270.481058</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1050690836069042</v>
+        <v>0.1131107513248662</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02082221766798309</v>
+        <v>0.02113153823608914</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1107856750.691167</v>
+        <v>1109416111.319622</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07680945446811711</v>
+        <v>0.08487409797163238</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04332281391283987</v>
+        <v>0.03060888981277271</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1966040750.766918</v>
+        <v>2314251117.560521</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1109611616346033</v>
+        <v>0.1130538481650384</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01876590142245333</v>
+        <v>0.02168739769376688</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2481050213.267705</v>
+        <v>1880332351.940165</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09694453814440791</v>
+        <v>0.09420521985767238</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04048661687385536</v>
+        <v>0.03779039156625857</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1639695474.789749</v>
+        <v>2146659785.642796</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08916983716178184</v>
+        <v>0.1144159130161749</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03409877167155514</v>
+        <v>0.03810540811002994</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2048412480.947544</v>
+        <v>1525706921.100495</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1681588040574647</v>
+        <v>0.1587708879469497</v>
       </c>
       <c r="G39" t="n">
-        <v>0.031656272629193</v>
+        <v>0.03288685733673459</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1748942377.205587</v>
+        <v>1589633685.512279</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1112037475851806</v>
+        <v>0.1251125233465067</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05589754454755461</v>
+        <v>0.04584330333704709</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2235803139.556794</v>
+        <v>2621559622.606032</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1102875326912497</v>
+        <v>0.1402835096976283</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04414096469765424</v>
+        <v>0.03632100342390338</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3557656259.473896</v>
+        <v>4198834529.689842</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1257314301658367</v>
+        <v>0.09719510634584809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02951719913562189</v>
+        <v>0.03076089934862062</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>166</v>
+      </c>
+      <c r="J42" t="n">
+        <v>379</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2426866172.093505</v>
+        <v>2729596830.97726</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2011833968800057</v>
+        <v>0.160101219431999</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02295017371902195</v>
+        <v>0.01911210096476283</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1746617976.835055</v>
+        <v>2216793265.603955</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07431579068945789</v>
+        <v>0.09054359368887904</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03512430501892562</v>
+        <v>0.02536049611132799</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2103465828.10589</v>
+        <v>1620914232.877988</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1391957519359646</v>
+        <v>0.1393713309042013</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0474517706150157</v>
+        <v>0.0393026915861</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4839230395.466739</v>
+        <v>4380687524.880973</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1223870800496512</v>
+        <v>0.1322879940579022</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06017856877728803</v>
+        <v>0.05991968589986419</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>226</v>
+      </c>
+      <c r="J46" t="n">
+        <v>379</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2086,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3998897297.922575</v>
+        <v>4036303858.29571</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1569548082475137</v>
+        <v>0.1723354699686739</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05013601406685721</v>
+        <v>0.04493488378200908</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>169</v>
+      </c>
+      <c r="J47" t="n">
+        <v>379</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2121,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4270484338.453924</v>
+        <v>4578134051.574517</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09606372926154223</v>
+        <v>0.08553460148202031</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02788507719757218</v>
+        <v>0.03612239860174609</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>196</v>
+      </c>
+      <c r="J48" t="n">
+        <v>379</v>
+      </c>
+      <c r="K48" t="n">
+        <v>53.82927527887959</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1442959237.117095</v>
+        <v>1644216833.892619</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1644511345491779</v>
+        <v>0.1578809118988481</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03254048656429281</v>
+        <v>0.03336829182914099</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2193,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4032082773.01952</v>
+        <v>3889634540.222835</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1215864626367029</v>
+        <v>0.1630325940479832</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04203547679349749</v>
+        <v>0.0363688928376775</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>129</v>
+      </c>
+      <c r="J50" t="n">
+        <v>379</v>
+      </c>
+      <c r="K50" t="n">
+        <v>62.67097219375011</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1487421966.562562</v>
+        <v>994941862.22411</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1575414731983209</v>
+        <v>0.1607714654543577</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03713632960660793</v>
+        <v>0.03272428138416362</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2265,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5141105205.868585</v>
+        <v>4945564462.154405</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1264663407053907</v>
+        <v>0.1004813997808425</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03969773816386813</v>
+        <v>0.0464082629405575</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>222</v>
+      </c>
+      <c r="J52" t="n">
+        <v>379</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2866122661.060123</v>
+        <v>3212594866.796609</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1344510819867513</v>
+        <v>0.1738264114454221</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03381454991093922</v>
+        <v>0.02700626321637004</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4452515998.420718</v>
+        <v>3998598728.916206</v>
       </c>
       <c r="F54" t="n">
-        <v>0.108321864796267</v>
+        <v>0.1232618658008386</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03981699218790011</v>
+        <v>0.04696332650475409</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>202</v>
+      </c>
+      <c r="J54" t="n">
+        <v>378</v>
+      </c>
+      <c r="K54" t="n">
+        <v>52.93113301957199</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3793235911.146387</v>
+        <v>4855263528.698312</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2132361361194389</v>
+        <v>0.1704709844635689</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02253451545912871</v>
+        <v>0.02454474420181666</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>182</v>
+      </c>
+      <c r="J55" t="n">
+        <v>379</v>
+      </c>
+      <c r="K55" t="n">
+        <v>59.29242083745095</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1758986707.419734</v>
+        <v>1796432447.979302</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1222348167373379</v>
+        <v>0.1635750541850928</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04599506720884496</v>
+        <v>0.04225093792442086</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3150122806.881132</v>
+        <v>3641616430.621162</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1779032688016681</v>
+        <v>0.172671208599063</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02179607519809318</v>
+        <v>0.02659675380313369</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>160</v>
+      </c>
+      <c r="J57" t="n">
+        <v>378</v>
+      </c>
+      <c r="K57" t="n">
+        <v>50.7023723641399</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1403799641.498853</v>
+        <v>1556485554.602763</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1872607162214913</v>
+        <v>0.1631744572420474</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02507058727046073</v>
+        <v>0.02708380646718126</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3462498145.38207</v>
+        <v>3519533662.707466</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1298575377146493</v>
+        <v>0.08186694928441916</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03563211115515182</v>
+        <v>0.04740408298263137</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>184</v>
+      </c>
+      <c r="J59" t="n">
+        <v>377</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3006141722.412054</v>
+        <v>3696386325.702608</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1765564497760655</v>
+        <v>0.1741175218030494</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02383864548767994</v>
+        <v>0.03016420007691291</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>70</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2061351604.872014</v>
+        <v>3239945596.459257</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1470740208166538</v>
+        <v>0.1779359934081129</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02457567447121312</v>
+        <v>0.02305334015323641</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1909059935.42399</v>
+        <v>1866579742.456379</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1650969253833975</v>
+        <v>0.1334072170685052</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03078822514365716</v>
+        <v>0.03320262467084831</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4695009379.264715</v>
+        <v>4290929867.344342</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09204878268810224</v>
+        <v>0.07823856879149146</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02909384347287401</v>
+        <v>0.04279896657073427</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>187</v>
+      </c>
+      <c r="J63" t="n">
+        <v>379</v>
+      </c>
+      <c r="K63" t="n">
+        <v>54.48038908449688</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4411615754.399996</v>
+        <v>4803644186.982788</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1250656953999993</v>
+        <v>0.1897848584591026</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03149976202199953</v>
+        <v>0.02177318305743721</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>188</v>
+      </c>
+      <c r="J64" t="n">
+        <v>379</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4801365623.397527</v>
+        <v>4569089091.964376</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1268042089927341</v>
+        <v>0.1609146044120043</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02486323369533442</v>
+        <v>0.02419779598936347</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>285</v>
+      </c>
+      <c r="J65" t="n">
+        <v>378</v>
+      </c>
+      <c r="K65" t="n">
+        <v>51.42369296049714</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5550336098.640745</v>
+        <v>5329821513.335047</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1309326374901132</v>
+        <v>0.1625242444139788</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04189851874139484</v>
+        <v>0.04445711491151568</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>187</v>
+      </c>
+      <c r="J66" t="n">
+        <v>379</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2436236965.780354</v>
+        <v>2907070205.867682</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06474085780143436</v>
+        <v>0.09497350403041575</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03320337676349416</v>
+        <v>0.03791067759704071</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3878741433.711335</v>
+        <v>6002605996.37091</v>
       </c>
       <c r="F68" t="n">
-        <v>0.112395849504352</v>
+        <v>0.1471900988650623</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03631303514444442</v>
+        <v>0.04007713743106582</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>205</v>
+      </c>
+      <c r="J68" t="n">
+        <v>379</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1945196144.86624</v>
+        <v>2448774844.927784</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1252145590827289</v>
+        <v>0.121102555840341</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0591697520476394</v>
+        <v>0.05460832722434002</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3100957483.705436</v>
+        <v>3434896690.45685</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06303209944761229</v>
+        <v>0.08372692923542573</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04170932947581383</v>
+        <v>0.04415603009206869</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4366019496.746929</v>
+        <v>3855628963.495209</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1202506348643394</v>
+        <v>0.1287713706278127</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02059957147242437</v>
+        <v>0.02650053173952531</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>271</v>
+      </c>
+      <c r="J71" t="n">
+        <v>378</v>
+      </c>
+      <c r="K71" t="n">
+        <v>53.79214703709681</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2041973858.640729</v>
+        <v>1571709706.754182</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06625606537448951</v>
+        <v>0.06564514148827708</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0453199332226974</v>
+        <v>0.03620856299467447</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3006,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2733811709.211637</v>
+        <v>2477342327.06893</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07026270433522552</v>
+        <v>0.07431434305576076</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0352796855023669</v>
+        <v>0.05257500602157641</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="n">
+        <v>378</v>
+      </c>
+      <c r="K73" t="n">
+        <v>38.48158821938986</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3679859540.853422</v>
+        <v>3822195308.376533</v>
       </c>
       <c r="F74" t="n">
-        <v>0.167501063014961</v>
+        <v>0.1770342917432488</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0304024575143578</v>
+        <v>0.02594027134018799</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>107</v>
+      </c>
+      <c r="J74" t="n">
+        <v>379</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2464680312.629732</v>
+        <v>1915163292.864533</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1529513794126252</v>
+        <v>0.1016691723794786</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0341341273967203</v>
+        <v>0.0311486054304656</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3378140335.420436</v>
+        <v>4734326263.518432</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08950142425049332</v>
+        <v>0.1088222462366135</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0279004115807062</v>
+        <v>0.02248406548091721</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>179</v>
+      </c>
+      <c r="J76" t="n">
+        <v>378</v>
+      </c>
+      <c r="K76" t="n">
+        <v>53.30864237892563</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1876882976.663892</v>
+        <v>1708331236.810358</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1866277908729948</v>
+        <v>0.1343233457206419</v>
       </c>
       <c r="G77" t="n">
-        <v>0.024416600654696</v>
+        <v>0.02709340904993244</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4588083595.875759</v>
+        <v>3333853001.30252</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1190889795288286</v>
+        <v>0.1250675178569323</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05449012533245043</v>
+        <v>0.05224744474063681</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>190</v>
+      </c>
+      <c r="J78" t="n">
+        <v>378</v>
+      </c>
+      <c r="K78" t="n">
+        <v>39.35637398545967</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1682363852.709025</v>
+        <v>1413783496.094381</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1067901366342954</v>
+        <v>0.146123021842002</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03417883911675714</v>
+        <v>0.02676740725239893</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4876570534.765243</v>
+        <v>5310653851.376768</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08076662352890215</v>
+        <v>0.07850688059305895</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02757384539783561</v>
+        <v>0.03568565207836086</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>185</v>
+      </c>
+      <c r="J80" t="n">
+        <v>378</v>
+      </c>
+      <c r="K80" t="n">
+        <v>43.10895750495845</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4234126746.271206</v>
+        <v>3555003092.137377</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1272651187045685</v>
+        <v>0.1370387629991666</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02400413574385094</v>
+        <v>0.03105727085220567</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>176</v>
+      </c>
+      <c r="J81" t="n">
+        <v>378</v>
+      </c>
+      <c r="K81" t="n">
+        <v>44.49874376332986</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3337,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5080315211.896858</v>
+        <v>4457917985.479327</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1405105353562876</v>
+        <v>0.2028286459222071</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02776356181245756</v>
+        <v>0.01833809788964135</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>262</v>
+      </c>
+      <c r="J82" t="n">
+        <v>379</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1930421928.943783</v>
+        <v>1511047678.545868</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09716066407631571</v>
+        <v>0.14822446632148</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02931795116826744</v>
+        <v>0.04496210992101657</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1884052175.27841</v>
+        <v>2385529125.097501</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09022424263033069</v>
+        <v>0.107308897580599</v>
       </c>
       <c r="G84" t="n">
-        <v>0.033245472888875</v>
+        <v>0.04687323071850649</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2752917086.645733</v>
+        <v>2902794844.000847</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1148131664615038</v>
+        <v>0.1838351395196479</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03719783516981396</v>
+        <v>0.05207125966620246</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1799322937.838672</v>
+        <v>2026412370.476685</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1095637224573214</v>
+        <v>0.1616517581687768</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0220972896569531</v>
+        <v>0.02590591693338501</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1448163282.982965</v>
+        <v>1210574586.792368</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1721465871899662</v>
+        <v>0.1256526486837135</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03883051038242356</v>
+        <v>0.0442051659836567</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3339313062.98118</v>
+        <v>3283666300.2732</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1363032650004485</v>
+        <v>0.1435894181657424</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03284498247529088</v>
+        <v>0.03353985798063801</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>48</v>
+      </c>
+      <c r="J88" t="n">
+        <v>374</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2533211707.596354</v>
+        <v>3514744187.904389</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1210740875518811</v>
+        <v>0.09821824737913712</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03168697814745167</v>
+        <v>0.02921734471816804</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1573620405.756619</v>
+        <v>2049516617.089114</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1264278751341799</v>
+        <v>0.1218635064195081</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04893732478781691</v>
+        <v>0.05009302603927313</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1920826298.958318</v>
+        <v>2085419851.204971</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1801609373473188</v>
+        <v>0.16734884435256</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04976850229082793</v>
+        <v>0.03821448996632064</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2280242753.360445</v>
+        <v>2551209450.119677</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1061284463670896</v>
+        <v>0.09948112910314673</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03931129034918036</v>
+        <v>0.03821422212044084</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4669562056.592308</v>
+        <v>3790439166.702272</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1256396302199285</v>
+        <v>0.1388530290850463</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04964795579624569</v>
+        <v>0.03836616954043486</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>178</v>
+      </c>
+      <c r="J93" t="n">
+        <v>379</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1696636441.661004</v>
+        <v>2498599318.522926</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1448775488428794</v>
+        <v>0.1552358508366954</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03901101397561507</v>
+        <v>0.02900201719802769</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2100464764.238734</v>
+        <v>3149764485.414739</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1171298931521405</v>
+        <v>0.1350067335931406</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03919677933528993</v>
+        <v>0.04723597000206171</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1514855041.838749</v>
+        <v>2383262633.664076</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1389153424336494</v>
+        <v>0.1174688790578015</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04162184370637636</v>
+        <v>0.04726385275160527</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4731640512.908109</v>
+        <v>4215570513.013822</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1472593383783624</v>
+        <v>0.1428595433823818</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02677105166946556</v>
+        <v>0.02190981690977602</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>196</v>
+      </c>
+      <c r="J97" t="n">
+        <v>378</v>
+      </c>
+      <c r="K97" t="n">
+        <v>52.93147633398894</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3050688957.577346</v>
+        <v>2905790045.245098</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1097348638945795</v>
+        <v>0.1251557756250405</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02689851668875656</v>
+        <v>0.01985869264390715</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>97</v>
+      </c>
+      <c r="J98" t="n">
+        <v>375</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2736207075.534634</v>
+        <v>2188277870.224766</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1346102203217614</v>
+        <v>0.1242245349842589</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03084131710496967</v>
+        <v>0.02970157472916645</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4710786860.762798</v>
+        <v>3419392360.803566</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1327684885966455</v>
+        <v>0.1461887121208801</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02326265717455581</v>
+        <v>0.02461628734525223</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>174</v>
+      </c>
+      <c r="J100" t="n">
+        <v>378</v>
+      </c>
+      <c r="K100" t="n">
+        <v>42.49969661288634</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2737697100.508354</v>
+        <v>3076789877.839599</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1351512841374395</v>
+        <v>0.1396363473686466</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05572882199299762</v>
+        <v>0.04694123802170818</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
